--- a/ClosedXML.Tests/Resource/Other/PivotTable/Create/Add_one_row_without_value.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTable/Create/Add_one_row_without_value.xlsx
@@ -90,10 +90,9 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Test" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
   <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
   <pivotFields count="2">
-    <pivotField name="A" axis="axisRow" showAll="0">
-      <items count="2">
+    <pivotField name="A" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="1">
         <item x="0"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
